--- a/input/general/Efficiency_Combustion.xlsx
+++ b/input/general/Efficiency_Combustion.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2334B6-8BD6-4B9D-889C-8CA6371DCBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC326DF-B53A-4B41-A167-8FCD27D33DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1140" windowWidth="21600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>Efficiency</t>
   </si>
@@ -47,15 +47,9 @@
     <t>Erdgas</t>
   </si>
   <si>
-    <t>Wasserstoff</t>
-  </si>
-  <si>
     <t>85 bis 93</t>
   </si>
   <si>
-    <t>wie Erdgas</t>
-  </si>
-  <si>
     <t>70 bis 90</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>Waerme</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>https://www.vivis.de/wp-content/uploads/EaA8/2011_EaA_1_28_Gohlke</t>
   </si>
   <si>
@@ -119,15 +110,9 @@
     <t>[1]</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>herkömmliche Gasheizung</t>
   </si>
   <si>
-    <t>Assumption</t>
-  </si>
-  <si>
     <t>Ölbrennwertheizung</t>
   </si>
   <si>
@@ -158,26 +143,118 @@
     <t>85-103</t>
   </si>
   <si>
-    <t>Average of the below given values</t>
-  </si>
-  <si>
-    <t>electricity: solarphotovoltaic, wind, hydro, tide, wave, ocean
-heat: biofuel…</t>
-  </si>
-  <si>
-    <t>Assumption based on data (detailed Balance data)</t>
-  </si>
-  <si>
     <t>Assumptions:</t>
   </si>
   <si>
     <t>Energy carrier</t>
+  </si>
+  <si>
+    <t>Units:</t>
+  </si>
+  <si>
+    <t>no units (percentage)</t>
+  </si>
+  <si>
+    <t>Original Data:</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>Energy conversion efficiencies to obtain heat as useful energy</t>
+  </si>
+  <si>
+    <t>sheet: Data</t>
+  </si>
+  <si>
+    <t>sheet: Data_final</t>
+  </si>
+  <si>
+    <t>Energy conversion efficiencies to obtain fuel as final energy</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Methodology guide for the construction of energy balances</t>
+  </si>
+  <si>
+    <t>Further Info:</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>accessed: 20.02.2023</t>
+  </si>
+  <si>
+    <t>[1], A1</t>
+  </si>
+  <si>
+    <t>own assumption</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Average of Heizkessel mit Scheitholz and Pelletkessel values</t>
+  </si>
+  <si>
+    <t>Same efficiency as for natural gas</t>
+  </si>
+  <si>
+    <t>[1], A2</t>
+  </si>
+  <si>
+    <t>Source/Assumption</t>
+  </si>
+  <si>
+    <t>Vereinfachte Energiebilanzen [nrg_bal_s]</t>
+  </si>
+  <si>
+    <t>Eurostat</t>
+  </si>
+  <si>
+    <t>Endenergieverbrauch - Industriesektor - energetischer Verbrauch</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Since electricity: solarphotovoltaic, wind, hydro, tide, wave, ocean, and heat: biofuel…</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>Average of Heizkessel mit Scheitholz vakues</t>
+  </si>
+  <si>
+    <t>[1], A3</t>
+  </si>
+  <si>
+    <t>efficiencies of heating technologies</t>
+  </si>
+  <si>
+    <t>Renewable energies are attributed to heat demand, based on [3]</t>
+  </si>
+  <si>
+    <t>Torf</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>Same efficiency as for waste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yy"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -217,12 +294,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -238,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -247,6 +330,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -528,39 +613,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <f>(80+95+85+103)/4/100</f>
@@ -569,8 +659,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -581,98 +674,172 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4">
+        <f>C8</f>
+        <v>0.65</v>
+      </c>
+      <c r="D4">
+        <f>D8</f>
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>0.93</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0.9</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0.65</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4">
-        <v>0.93</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>0.9</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>0.65</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10">
+      <c r="C11">
         <f>(80+95)/2/100</f>
         <v>0.875</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -681,29 +848,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C57BA3-29DC-44DD-BD94-7E5A2ED8761D}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -711,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -734,11 +903,9 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4">
         <v>1</v>
       </c>
@@ -748,10 +915,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -762,9 +929,11 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C6">
         <v>1</v>
       </c>
@@ -774,8 +943,9 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7">
         <v>1</v>
       </c>
@@ -785,42 +955,53 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <f>(C6+C7+D6)/2</f>
         <v>1</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <f>(C7+C8+D7)/2</f>
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
     </row>
@@ -831,220 +1012,252 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <f>(80+95+85+103)/4</f>
-        <v>90.75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="str">
-        <f>C11</f>
-        <v>85 bis 93</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="str">
-        <f>C11</f>
-        <v>85 bis 93</v>
-      </c>
-      <c r="D18" t="str">
-        <f>D10</f>
-        <v>wie Erdgas</v>
-      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{EA1FFE2D-50B6-4E7E-9565-752AA47E9EC6}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{BB69307D-81A0-44EF-BA3F-F6F7E5C4AE9D}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{FAF1B3F7-8CC4-4BA5-ADEF-B9EBE8BA5247}"/>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{EA1FFE2D-50B6-4E7E-9565-752AA47E9EC6}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{BB69307D-81A0-44EF-BA3F-F6F7E5C4AE9D}"/>
+    <hyperlink ref="F17" r:id="rId3" xr:uid="{FAF1B3F7-8CC4-4BA5-ADEF-B9EBE8BA5247}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/input/general/Efficiency_Combustion.xlsx
+++ b/input/general/Efficiency_Combustion.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC326DF-B53A-4B41-A167-8FCD27D33DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2ACA75-DA45-4785-97B4-EAB90DCCFE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1140" windowWidth="21600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30510" yWindow="-10575" windowWidth="25185" windowHeight="16890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
   <si>
     <t>Efficiency</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Same efficiency as for waste</t>
+  </si>
+  <si>
+    <t>Brennstoff allgemein</t>
   </si>
 </sst>
 </file>
@@ -615,20 +618,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -645,7 +648,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -663,7 +666,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -678,7 +681,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -695,7 +698,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -712,7 +715,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -729,7 +732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -744,7 +747,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -758,7 +761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -775,7 +778,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -792,7 +795,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
@@ -808,37 +811,51 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12">
+        <v>0.9</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
     </row>
   </sheetData>
@@ -848,20 +865,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C57BA3-29DC-44DD-BD94-7E5A2ED8761D}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -875,7 +892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -889,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -901,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -913,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -927,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -953,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -964,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -992,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
@@ -1002,6 +1019,17 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
     </row>
@@ -1018,15 +1046,15 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="64.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1037,7 +1065,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>44</v>
       </c>
@@ -1045,7 +1073,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1053,7 +1081,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1067,7 +1095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -1081,7 +1109,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -1095,10 +1123,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1110,7 +1138,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>53</v>
       </c>
@@ -1119,7 +1147,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>61</v>
       </c>
@@ -1128,7 +1156,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>63</v>
       </c>
@@ -1137,13 +1165,13 @@
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>69</v>
       </c>
@@ -1152,12 +1180,12 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C16" s="3"/>
       <c r="E16" s="1"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1171,11 +1199,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1189,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -1197,7 +1225,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>33</v>
       </c>
@@ -1205,7 +1233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>25</v>
       </c>
@@ -1213,7 +1241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>23</v>
       </c>
@@ -1221,7 +1249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -1229,28 +1257,28 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G32" s="1"/>
     </row>
   </sheetData>

--- a/input/general/Efficiency_Combustion.xlsx
+++ b/input/general/Efficiency_Combustion.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2ACA75-DA45-4785-97B4-EAB90DCCFE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75846663-8EC9-4795-86D3-C5B194BA4591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30510" yWindow="-10575" windowWidth="25185" windowHeight="16890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>Efficiency</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>Brennstoff allgemein</t>
+  </si>
+  <si>
+    <t>0.9</t>
   </si>
 </sst>
 </file>
@@ -337,8 +340,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -622,7 +625,7 @@
       <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.1796875" customWidth="1"/>
@@ -868,10 +871,10 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.54296875" bestFit="1" customWidth="1"/>
@@ -1026,8 +1029,8 @@
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="C12" t="s">
+        <v>72</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1035,6 +1038,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1046,7 +1050,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.81640625" customWidth="1"/>

--- a/input/general/Efficiency_Combustion.xlsx
+++ b/input/general/Efficiency_Combustion.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75846663-8EC9-4795-86D3-C5B194BA4591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339E7A32-495E-4B78-8555-898380CB6305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="14740" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>Electricity production [-]</t>
   </si>
   <si>
-    <t>Energy carier HH</t>
-  </si>
-  <si>
     <t>electricity</t>
   </si>
   <si>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>0.9</t>
+  </si>
+  <si>
+    <t>Energy carrier HH</t>
   </si>
 </sst>
 </file>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -636,10 +636,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -648,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <f>(80+95+85+103)/4/100</f>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -681,12 +681,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4">
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -706,7 +706,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>0.93</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -723,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>0.9</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -769,7 +769,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -786,7 +786,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <f>(80+95)/2/100</f>
@@ -811,12 +811,12 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12">
         <v>0.9</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C57BA3-29DC-44DD-BD94-7E5A2ED8761D}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -883,10 +883,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -900,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4">
@@ -938,7 +938,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -952,7 +952,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1015,7 +1015,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <f>(C7+C8+D7)/2</f>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
         <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1060,40 +1060,40 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>6</v>
@@ -1101,30 +1101,30 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1132,55 +1132,55 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
         <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
         <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>70</v>
       </c>
       <c r="F15" s="5"/>
     </row>
@@ -1191,16 +1191,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1209,13 +1209,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>0</v>
@@ -1223,23 +1223,23 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -1255,10 +1255,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">

--- a/input/general/Efficiency_Combustion.xlsx
+++ b/input/general/Efficiency_Combustion.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339E7A32-495E-4B78-8555-898380CB6305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8CFDA9-7A84-494B-AD91-CE7BF25EE9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="14740" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
   <si>
     <t>Efficiency</t>
   </si>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t>Brennstoff allgemein</t>
-  </si>
-  <si>
-    <t>0.9</t>
   </si>
   <si>
     <t>Energy carrier HH</t>
@@ -622,7 +619,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -639,7 +636,7 @@
         <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -871,7 +868,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -886,7 +883,7 @@
         <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -1029,8 +1026,8 @@
       <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C12" t="s">
-        <v>71</v>
+      <c r="C12">
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1038,7 +1035,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
